--- a/Accumulated Depreciation 5.11.0-demo-5.xlsx
+++ b/Accumulated Depreciation 5.11.0-demo-5.xlsx
@@ -1126,4 +1126,9 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customUI/customUI14.xml><?xml version="1.0" encoding="utf-8"?>
+<customUI xmlns="http://schemas.microsoft.com/office/2009/07/customui">
+</customUI>
 </file>